--- a/mixs-templates/Miuvig_plus_combinations/MiuvigHostAssociated.xlsx
+++ b/mixs-templates/Miuvig_plus_combinations/MiuvigHostAssociated.xlsx
@@ -1019,13 +1019,16 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="16">
+  <dataValidations count="19">
     <dataValidation sqref="W2:W1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
     </dataValidation>
     <dataValidation sqref="Y2:Y1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
+    <dataValidation sqref="Z2:Z1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
+    </dataValidation>
     <dataValidation sqref="AE2:AE1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
     </dataValidation>
@@ -1053,11 +1056,17 @@
     <dataValidation sqref="BN2:BN1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"bbmap,bowtie,bwa,other"</formula1>
     </dataValidation>
+    <dataValidation sqref="BP2:BP1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"DNA,dsDNA,ssDNA,RNA,dsRNA,ssRNA,ssRNA (+),ssRNA (-),mixed,uncharacterized"</formula1>
+    </dataValidation>
     <dataValidation sqref="BQ2:BQ1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"non-segmented,segmented,undetermined"</formula1>
     </dataValidation>
     <dataValidation sqref="BV2:BV1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"CRISPR spacer match,co-occurrence,combination,host sequence similarity,kmer similarity,other,provirus"</formula1>
+    </dataValidation>
+    <dataValidation sqref="CA2:CA1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"breeder's line,clonal selection,hybrid,inbred line,mutant,natural,semi-natural,wild"</formula1>
     </dataValidation>
     <dataValidation sqref="CD2:CD1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"active surveillance in response to an outbreak,active surveillance not initiated by an outbreak,farm sample,market sample,other"</formula1>
